--- a/approach/allergenetic_trees.xlsx
+++ b/approach/allergenetic_trees.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janisklug/Documents/HU_Berlin/Applied_Geoinformation_Science/MAP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janisklug/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54B7F84-2AA6-BA46-8267-672BA17903CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC341FE9-C8CF-D747-A902-BF94B7776CFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{3B7B1286-997D-FD41-8960-82FB8D0BF8C1}"/>
+    <workbookView xWindow="0" yWindow="3740" windowWidth="28800" windowHeight="13200" xr2:uid="{3B7B1286-997D-FD41-8960-82FB8D0BF8C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="165">
   <si>
     <t>Alnus glutinosa</t>
   </si>
@@ -162,9 +162,6 @@
     <t>Turkish hazel</t>
   </si>
   <si>
-    <t>Flight distance</t>
-  </si>
-  <si>
     <t>Pollen flight period</t>
   </si>
   <si>
@@ -213,12 +210,6 @@
     <t>medium</t>
   </si>
   <si>
-    <t>Allergenetic effect</t>
-  </si>
-  <si>
-    <t>include how many people are allergic? E.g. only very few are allergic versus populus</t>
-  </si>
-  <si>
     <t>Populus nigra</t>
   </si>
   <si>
@@ -246,12 +237,6 @@
     <t>low</t>
   </si>
   <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>AE + CA + FD?</t>
-  </si>
-  <si>
     <t>chestnut</t>
   </si>
   <si>
@@ -261,9 +246,6 @@
     <t>Fagaceae sp., Coryllus sp., Alnus sp., Carpinus betulus</t>
   </si>
   <si>
-    <t>Calculate cross allergenecity score depending on the number of trees in the neighbourhood or create a cross allergenecity score depending on how many cross allergies / reactions occur?</t>
-  </si>
-  <si>
     <t>Pinaceae</t>
   </si>
   <si>
@@ -279,9 +261,6 @@
     <t>pine pollen very aggressive compared to other coniferous trees but obviously not comparable to pollen of deciduous trees</t>
   </si>
   <si>
-    <t>Urban inhabitant for a street and not urban dwellers? Then the pollen flight period is also not important</t>
-  </si>
-  <si>
     <t>Malvaceae</t>
   </si>
   <si>
@@ -306,17 +285,248 @@
     <t>March to June</t>
   </si>
   <si>
-    <t>allergic reactions, based on physical reactions by people… assigning either 0 to 5 or 0 to 1000 (?)</t>
-  </si>
-  <si>
-    <t>find articles and put index into code</t>
+    <t>Aesculus sp.</t>
+  </si>
+  <si>
+    <t>Simaroubaceae</t>
+  </si>
+  <si>
+    <t>Ailanthus</t>
+  </si>
+  <si>
+    <t>potentially allergentic</t>
+  </si>
+  <si>
+    <t>doi:10.1034/j.1398-9995.2003.00172.x</t>
+  </si>
+  <si>
+    <t>tree of heaven</t>
+  </si>
+  <si>
+    <t>Cedrus sp.</t>
+  </si>
+  <si>
+    <t>cedar</t>
+  </si>
+  <si>
+    <t>Cercidiphyllaceae</t>
+  </si>
+  <si>
+    <t>Cercidiphyllum</t>
+  </si>
+  <si>
+    <t>katsura</t>
+  </si>
+  <si>
+    <t>Rosaceae</t>
+  </si>
+  <si>
+    <t>Crataegus</t>
+  </si>
+  <si>
+    <t>Elaeagnaceae</t>
+  </si>
+  <si>
+    <t>Eleagnus</t>
+  </si>
+  <si>
+    <t>Gingkoaceae</t>
+  </si>
+  <si>
+    <t>Gingko</t>
+  </si>
+  <si>
+    <t>Gingko biloba</t>
+  </si>
+  <si>
+    <t>Fabaceae</t>
+  </si>
+  <si>
+    <t>Gleditsia sp.</t>
+  </si>
+  <si>
+    <t>honey locust</t>
+  </si>
+  <si>
+    <t>Aquifoliaceae</t>
+  </si>
+  <si>
+    <t>Ilex</t>
+  </si>
+  <si>
+    <t>holly</t>
+  </si>
+  <si>
+    <t>Juglandaceae</t>
+  </si>
+  <si>
+    <t>Juglans sp.</t>
+  </si>
+  <si>
+    <t>Walnut</t>
+  </si>
+  <si>
+    <t>Koelreuteria</t>
+  </si>
+  <si>
+    <t>koelreuteria</t>
+  </si>
+  <si>
+    <t>Laburnum sp.</t>
+  </si>
+  <si>
+    <t>golden rain</t>
+  </si>
+  <si>
+    <t>Magnoliaceae</t>
+  </si>
+  <si>
+    <t>Liriodendron</t>
+  </si>
+  <si>
+    <t>tulip tree</t>
+  </si>
+  <si>
+    <t>Altingiaceae</t>
+  </si>
+  <si>
+    <t>Liquidambar</t>
+  </si>
+  <si>
+    <t>Malus</t>
+  </si>
+  <si>
+    <t>orchard apple</t>
+  </si>
+  <si>
+    <t>hawthorn</t>
+  </si>
+  <si>
+    <t>Cupressaceae</t>
+  </si>
+  <si>
+    <t>Metasequoia</t>
+  </si>
+  <si>
+    <t>dawn redwood</t>
+  </si>
+  <si>
+    <t>Nothofagaceae</t>
+  </si>
+  <si>
+    <t>Notohofagus</t>
+  </si>
+  <si>
+    <t>southern beech</t>
+  </si>
+  <si>
+    <t>Paulowniaceae</t>
+  </si>
+  <si>
+    <t>Paulownia sp.</t>
+  </si>
+  <si>
+    <t>paulownia</t>
+  </si>
+  <si>
+    <t>Piceae sp.</t>
+  </si>
+  <si>
+    <t>spruce</t>
+  </si>
+  <si>
+    <t>Prunus sp.</t>
+  </si>
+  <si>
+    <t>plums, cherries, peaches etc.</t>
+  </si>
+  <si>
+    <t>Pterocarya</t>
+  </si>
+  <si>
+    <t>wingnuts</t>
+  </si>
+  <si>
+    <t>Pyrus</t>
+  </si>
+  <si>
+    <t>pear</t>
+  </si>
+  <si>
+    <t>Robinia sp.</t>
+  </si>
+  <si>
+    <t>Sorbus</t>
+  </si>
+  <si>
+    <t>sorbus</t>
+  </si>
+  <si>
+    <t>Styphnolobium</t>
+  </si>
+  <si>
+    <t>necklacepod</t>
+  </si>
+  <si>
+    <t>Taxaceae</t>
+  </si>
+  <si>
+    <t>Taxus sp.</t>
+  </si>
+  <si>
+    <t>yews</t>
+  </si>
+  <si>
+    <t>Tsuga sp.</t>
+  </si>
+  <si>
+    <t>hemlock</t>
+  </si>
+  <si>
+    <t>sweet-gum</t>
+  </si>
+  <si>
+    <t>Allergenecity</t>
+  </si>
+  <si>
+    <t>black locust</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>pollenlibrary.com</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Allergenecity score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">low (mild) </t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>high (severe)</t>
+  </si>
+  <si>
+    <t>none, low, low-medium,medium,medium-high, high, very highy (=with cross allergy )</t>
+  </si>
+  <si>
+    <t>0,1,2,3, 4,5,6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -336,6 +546,41 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Textkörper)_x0000_"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -361,11 +606,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -680,207 +931,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC785551-8B6B-5B4C-8547-566C1C133AE8}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="22.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="47.5" style="2" customWidth="1"/>
-    <col min="6" max="8" width="19.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="66.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="47.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="32.1640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="139.5" style="2" customWidth="1"/>
     <col min="11" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1">
+      <c r="F2" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1">
+      <c r="F3" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="8" customFormat="1">
+      <c r="A4" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="4" customFormat="1">
+      <c r="A5" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>20</v>
@@ -888,296 +1096,765 @@
       <c r="I8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>25</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>34</v>
+        <v>52</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="J12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="4" customFormat="1">
+      <c r="A13" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" s="4" customFormat="1">
+      <c r="A14" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" s="4" customFormat="1">
+      <c r="A15" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" s="8" customFormat="1">
+      <c r="A16" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" s="4" customFormat="1">
+      <c r="A17" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" s="8" customFormat="1">
+      <c r="A18" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" s="4" customFormat="1">
+      <c r="A19" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="8" customFormat="1">
+      <c r="A24" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="9" customFormat="1">
+      <c r="A25" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="4" customFormat="1">
+      <c r="A26" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="4" customFormat="1">
+      <c r="A27" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="4" customFormat="1">
+      <c r="A31" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="4" customFormat="1">
+      <c r="A32" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="4" customFormat="1">
+      <c r="A33" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="4" customFormat="1">
+      <c r="A35" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="4" customFormat="1">
+      <c r="A37" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="4" customFormat="1">
+      <c r="A38" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="9" customFormat="1">
+      <c r="A39" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="9" customFormat="1">
+      <c r="A40" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="4" customFormat="1">
+      <c r="A41" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="2" t="s">
+    </row>
+    <row r="46" spans="1:10" s="4" customFormat="1">
+      <c r="A46" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C46" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" s="4" customFormat="1">
+      <c r="A47" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="C48" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="9" customFormat="1">
+      <c r="A49" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="D50" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D28" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H28" s="1"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/approach/allergenetic_trees.xlsx
+++ b/approach/allergenetic_trees.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janisklug/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janisklug/Documents/HU_Berlin/Applied_Geoinformation_Science/Project_Work/urban_sustainability_exam/approach/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC341FE9-C8CF-D747-A902-BF94B7776CFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316A9144-0D49-E048-A68E-B9B76FE5727D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3740" windowWidth="28800" windowHeight="13200" xr2:uid="{3B7B1286-997D-FD41-8960-82FB8D0BF8C1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3B7B1286-997D-FD41-8960-82FB8D0BF8C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="168">
   <si>
     <t>Alnus glutinosa</t>
   </si>
@@ -243,9 +243,6 @@
     <t>Castanea sp.</t>
   </si>
   <si>
-    <t>Fagaceae sp., Coryllus sp., Alnus sp., Carpinus betulus</t>
-  </si>
-  <si>
     <t>Pinaceae</t>
   </si>
   <si>
@@ -516,17 +513,29 @@
     <t>high (severe)</t>
   </si>
   <si>
-    <t>none, low, low-medium,medium,medium-high, high, very highy (=with cross allergy )</t>
-  </si>
-  <si>
-    <t>0,1,2,3, 4,5,6</t>
+    <t>american chestnut</t>
+  </si>
+  <si>
+    <t>none, mild, moderate, severe?</t>
+  </si>
+  <si>
+    <t>none, mild, moderate, high, very high?</t>
+  </si>
+  <si>
+    <t>0,1,2,3, 4,5,6?</t>
+  </si>
+  <si>
+    <t>none, low, low-medium,medium,medium-high, high, very highy (=with cross allergy )?</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -585,6 +594,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -606,7 +623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -617,6 +634,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -933,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC785551-8B6B-5B4C-8547-566C1C133AE8}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -942,7 +960,7 @@
     <col min="1" max="1" width="22.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="24.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="47.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="66.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="47.5" style="2" customWidth="1"/>
@@ -963,16 +981,16 @@
         <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>45</v>
@@ -985,47 +1003,53 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1">
+      <c r="D2" s="10" t="s">
+        <v>163</v>
+      </c>
       <c r="F2" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1">
+      <c r="D3" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="F3" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="8" customFormat="1">
       <c r="A4" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="C4" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1">
       <c r="A5" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>109</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1111,7 +1135,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>21</v>
@@ -1151,7 +1175,7 @@
         <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>20</v>
@@ -1174,7 +1198,7 @@
         <v>44</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>20</v>
@@ -1188,109 +1212,109 @@
     </row>
     <row r="13" spans="1:10" s="4" customFormat="1">
       <c r="A13" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>96</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1">
       <c r="A14" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>127</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1">
       <c r="A15" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>100</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" s="8" customFormat="1">
       <c r="A16" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>106</v>
-      </c>
       <c r="D16" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1">
       <c r="A17" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>116</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" s="8" customFormat="1">
       <c r="A18" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1">
       <c r="A19" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>146</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J19" s="5"/>
     </row>
@@ -1302,7 +1326,7 @@
         <v>71</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>40</v>
@@ -1389,98 +1413,101 @@
     </row>
     <row r="24" spans="1:10" s="8" customFormat="1">
       <c r="A24" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="D24" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="9" customFormat="1">
       <c r="A25" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>112</v>
-      </c>
       <c r="D25" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1">
       <c r="A26" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B26" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>139</v>
-      </c>
       <c r="D26" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1">
       <c r="A27" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>119</v>
-      </c>
       <c r="D27" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>130</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1508,87 +1535,87 @@
     </row>
     <row r="31" spans="1:10" s="4" customFormat="1">
       <c r="A31" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="C31" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>133</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="4" customFormat="1">
       <c r="A32" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="4" customFormat="1">
       <c r="A33" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>135</v>
-      </c>
       <c r="D33" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>69</v>
       </c>
       <c r="H34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="4" customFormat="1">
       <c r="A35" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>151</v>
-      </c>
       <c r="D35" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1605,92 +1632,92 @@
         <v>69</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="4" customFormat="1">
       <c r="A37" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>98</v>
-      </c>
       <c r="C37" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="4" customFormat="1">
       <c r="A38" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B38" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>123</v>
-      </c>
       <c r="D38" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1">
       <c r="A39" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B39" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>137</v>
-      </c>
       <c r="D39" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="9" customFormat="1">
       <c r="A40" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B40" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>141</v>
-      </c>
       <c r="D40" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="4" customFormat="1">
       <c r="A41" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B41" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>144</v>
-      </c>
       <c r="D41" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1752,84 +1779,84 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>57</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="4" customFormat="1">
       <c r="A46" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="4" customFormat="1">
       <c r="A47" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B47" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>114</v>
-      </c>
       <c r="D47" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D48" s="7" t="s">
+      <c r="G48" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="9" customFormat="1">
       <c r="A49" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="C49" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>149</v>
-      </c>
       <c r="D49" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:8">

--- a/approach/allergenetic_trees.xlsx
+++ b/approach/allergenetic_trees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janisklug/Documents/HU_Berlin/Applied_Geoinformation_Science/Project_Work/urban_sustainability_exam/approach/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316A9144-0D49-E048-A68E-B9B76FE5727D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1BC794-70FA-E848-B526-780EE68BE52F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{3B7B1286-997D-FD41-8960-82FB8D0BF8C1}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="8920" xr2:uid="{3B7B1286-997D-FD41-8960-82FB8D0BF8C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="175">
   <si>
     <t>Alnus glutinosa</t>
   </si>
@@ -45,9 +45,6 @@
     <t>grey alder</t>
   </si>
   <si>
-    <t>medium to high</t>
-  </si>
-  <si>
     <t>Alnus alnobetula</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>European ash</t>
   </si>
   <si>
-    <t xml:space="preserve">medium </t>
-  </si>
-  <si>
     <t>cross reactions with carrots or celery; ash dieback in Denmark (&gt; 95% of all ash trees)</t>
   </si>
   <si>
@@ -102,9 +96,6 @@
     <t>silver birch</t>
   </si>
   <si>
-    <t>very high</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -192,9 +183,6 @@
     <t>Betula pendula, Alnus sp.,  Coryllus sp.</t>
   </si>
   <si>
-    <t>Betula pendula, Quercus sp., Fagus sylvatica, Coryllus sp.</t>
-  </si>
-  <si>
     <t>Salix sp.</t>
   </si>
   <si>
@@ -516,26 +504,76 @@
     <t>american chestnut</t>
   </si>
   <si>
-    <t>none, mild, moderate, severe?</t>
-  </si>
-  <si>
-    <t>none, mild, moderate, high, very high?</t>
-  </si>
-  <si>
-    <t>0,1,2,3, 4,5,6?</t>
-  </si>
-  <si>
-    <t>none, low, low-medium,medium,medium-high, high, very highy (=with cross allergy )?</t>
-  </si>
-  <si>
-    <t>s</t>
+    <t>D’Amato et al. (2007)</t>
+  </si>
+  <si>
+    <t>Cross reactions</t>
+  </si>
+  <si>
+    <t>none, low, medium, high, very highy</t>
+  </si>
+  <si>
+    <t>0,1,2,3, 4 +1 for cross allergies? = 5 + 1 for cross reactions? = 6 as maximum?</t>
+  </si>
+  <si>
+    <t>Betula pendula, primer for later pollinating betulaceae</t>
+  </si>
+  <si>
+    <t>primer for later pollinating betulaceae</t>
+  </si>
+  <si>
+    <t>Betula pendula, Quercus sp., Fagus sylvatica, Coryllus sp., primer for later pollinating betulaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">very high </t>
+  </si>
+  <si>
+    <t>birch pollen allergy usually associated with other allergens (cross reactions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">low to medium </t>
+  </si>
+  <si>
+    <t>Lugustrum vulgare</t>
+  </si>
+  <si>
+    <t>NA in copenhagen ?</t>
+  </si>
+  <si>
+    <t>cross reaction with cupressaceae</t>
+  </si>
+  <si>
+    <t>pollenlibrary.com; D’Amato et al. (2007)</t>
+  </si>
+  <si>
+    <t>oleaster</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">taxaceae,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>within cupressacace but only this cupressaceae existant as street tree (garden and park trees not considered)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -602,6 +640,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Textkörper)_x0000_"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -623,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -635,6 +685,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -949,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC785551-8B6B-5B4C-8547-566C1C133AE8}">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="88" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -961,121 +1012,125 @@
     <col min="2" max="2" width="25.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="24.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="35.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="47.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="66.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="47.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="139.5" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="105.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="53.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="66.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="47.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="32.1640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="139.5" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1">
+    <row r="1" spans="1:11" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1">
+      <c r="D2" s="10"/>
+      <c r="G2" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1">
+      <c r="D3" s="10"/>
+      <c r="G3" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="8" customFormat="1">
+      <c r="A4" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1">
-      <c r="D2" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1">
-      <c r="D3" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="8" customFormat="1">
-      <c r="A4" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="4" customFormat="1">
+    </row>
+    <row r="5" spans="1:11" s="4" customFormat="1">
       <c r="A5" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>154</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1086,19 +1141,22 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>163</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -1109,779 +1167,861 @@
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>163</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>18</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>166</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>167</v>
       </c>
+      <c r="F9" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="H9" s="2" t="s">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>8</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="H10" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="J11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>8</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="4" customFormat="1">
+      <c r="A13" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" s="4" customFormat="1">
+      <c r="A14" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="H14" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" s="4" customFormat="1">
+      <c r="A15" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" s="8" customFormat="1">
+      <c r="A16" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="H16" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" s="4" customFormat="1">
+      <c r="A17" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" s="8" customFormat="1">
+      <c r="A18" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="H18" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" s="4" customFormat="1">
+      <c r="A19" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="I20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="8" customFormat="1">
+      <c r="A24" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="9" customFormat="1">
+      <c r="A25" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="4" customFormat="1">
+      <c r="A26" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="4" customFormat="1">
+      <c r="A27" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="4" customFormat="1">
-      <c r="A13" s="9" t="s">
+      <c r="B30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="4" customFormat="1">
+      <c r="A31" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="4" customFormat="1">
+      <c r="A32" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="4" customFormat="1">
+      <c r="A33" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="4" customFormat="1">
+      <c r="A35" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="4" customFormat="1">
+      <c r="A37" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" s="4" customFormat="1">
-      <c r="A14" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" s="4" customFormat="1">
-      <c r="A15" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" s="8" customFormat="1">
-      <c r="A16" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G16" s="8" t="s">
+      <c r="C37" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="4" customFormat="1">
+      <c r="A38" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="9" customFormat="1">
+      <c r="A39" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="9" customFormat="1">
+      <c r="A40" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="4" customFormat="1">
+      <c r="A41" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="4" customFormat="1">
+      <c r="A46" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="4" customFormat="1">
+      <c r="A47" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" s="4" customFormat="1">
-      <c r="A17" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" s="8" customFormat="1">
-      <c r="A18" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" s="4" customFormat="1">
-      <c r="A19" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="9" t="s">
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="9" customFormat="1">
+      <c r="A49" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="D49" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="8" customFormat="1">
-      <c r="A24" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="9" customFormat="1">
-      <c r="A25" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="4" customFormat="1">
-      <c r="A26" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="4" customFormat="1">
-      <c r="A27" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="4" customFormat="1">
-      <c r="A31" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" s="4" customFormat="1">
-      <c r="A32" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="4" customFormat="1">
-      <c r="A33" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" s="4" customFormat="1">
-      <c r="A35" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="4" customFormat="1">
-      <c r="A37" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="4" customFormat="1">
-      <c r="A38" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="9" customFormat="1">
-      <c r="A39" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="9" customFormat="1">
-      <c r="A40" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="4" customFormat="1">
-      <c r="A41" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="4" customFormat="1">
-      <c r="A46" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="4" customFormat="1">
-      <c r="A47" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="9" customFormat="1">
-      <c r="A49" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+    </row>
+    <row r="57" spans="1:9">
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/approach/allergenetic_trees.xlsx
+++ b/approach/allergenetic_trees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janisklug/Documents/HU_Berlin/Applied_Geoinformation_Science/Project_Work/urban_sustainability_exam/approach/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1BC794-70FA-E848-B526-780EE68BE52F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CCDEFE-D61F-3A4F-9609-9044376E4126}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="8920" xr2:uid="{3B7B1286-997D-FD41-8960-82FB8D0BF8C1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="176">
   <si>
     <t>Alnus glutinosa</t>
   </si>
@@ -567,6 +567,9 @@
       </rPr>
       <t>within cupressacace but only this cupressaceae existant as street tree (garden and park trees not considered)</t>
     </r>
+  </si>
+  <si>
+    <t>ILOVEYOU</t>
   </si>
 </sst>
 </file>
@@ -1002,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC785551-8B6B-5B4C-8547-566C1C133AE8}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="88" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1064,6 +1067,9 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1">
+      <c r="A3" s="8" t="s">
+        <v>175</v>
+      </c>
       <c r="D3" s="10"/>
       <c r="G3" s="4" t="s">
         <v>162</v>

--- a/approach/allergenetic_trees.xlsx
+++ b/approach/allergenetic_trees.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janisklug/Documents/HU_Berlin/Applied_Geoinformation_Science/Project_Work/urban_sustainability_exam/approach/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Humboldt University/Urban Sustainability/Git_Urban_Sustainability_Exam/approach/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1BC794-70FA-E848-B526-780EE68BE52F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D710DE1-5B6B-B949-B525-D507FB9889E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="8920" xr2:uid="{3B7B1286-997D-FD41-8960-82FB8D0BF8C1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="176">
   <si>
     <t>Alnus glutinosa</t>
   </si>
@@ -567,6 +567,9 @@
       </rPr>
       <t>within cupressacace but only this cupressaceae existant as street tree (garden and park trees not considered)</t>
     </r>
+  </si>
+  <si>
+    <t>I hate you</t>
   </si>
 </sst>
 </file>
@@ -688,7 +691,7 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -704,7 +707,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1002,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC785551-8B6B-5B4C-8547-566C1C133AE8}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="88" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1064,6 +1067,9 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1">
+      <c r="A3" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="D3" s="10"/>
       <c r="G3" s="4" t="s">
         <v>162</v>

--- a/approach/allergenetic_trees.xlsx
+++ b/approach/allergenetic_trees.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Humboldt University/Urban Sustainability/Git_Urban_Sustainability_Exam/approach/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janisklug/Documents/HU_Berlin/Applied_Geoinformation_Science/Project_Work/urban_sustainability_exam/approach/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D710DE1-5B6B-B949-B525-D507FB9889E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1BC794-70FA-E848-B526-780EE68BE52F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="8920" xr2:uid="{3B7B1286-997D-FD41-8960-82FB8D0BF8C1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="175">
   <si>
     <t>Alnus glutinosa</t>
   </si>
@@ -567,9 +567,6 @@
       </rPr>
       <t>within cupressacace but only this cupressaceae existant as street tree (garden and park trees not considered)</t>
     </r>
-  </si>
-  <si>
-    <t>I hate you</t>
   </si>
 </sst>
 </file>
@@ -691,7 +688,7 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -707,7 +704,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1005,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC785551-8B6B-5B4C-8547-566C1C133AE8}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="88" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1067,9 +1064,6 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1">
-      <c r="A3" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="D3" s="10"/>
       <c r="G3" s="4" t="s">
         <v>162</v>

--- a/approach/allergenetic_trees.xlsx
+++ b/approach/allergenetic_trees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janisklug/Documents/HU_Berlin/Applied_Geoinformation_Science/Project_Work/urban_sustainability_exam/approach/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1BC794-70FA-E848-B526-780EE68BE52F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C54CCDA-EF15-BA42-9798-76464954A888}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="8920" xr2:uid="{3B7B1286-997D-FD41-8960-82FB8D0BF8C1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{3B7B1286-997D-FD41-8960-82FB8D0BF8C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -277,9 +277,6 @@
   </si>
   <si>
     <t>Ailanthus</t>
-  </si>
-  <si>
-    <t>potentially allergentic</t>
   </si>
   <si>
     <t>doi:10.1034/j.1398-9995.2003.00172.x</t>
@@ -567,6 +564,9 @@
       </rPr>
       <t>within cupressacace but only this cupressaceae existant as street tree (garden and park trees not considered)</t>
     </r>
+  </si>
+  <si>
+    <t>potentially allergenetic</t>
   </si>
 </sst>
 </file>
@@ -1002,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC785551-8B6B-5B4C-8547-566C1C133AE8}">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="88" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="88" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1033,19 +1033,19 @@
         <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>42</v>
@@ -1060,48 +1060,48 @@
     <row r="2" spans="1:11" s="1" customFormat="1">
       <c r="D2" s="10"/>
       <c r="G2" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1">
       <c r="D3" s="10"/>
       <c r="G3" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="8" customFormat="1">
       <c r="A4" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>116</v>
-      </c>
       <c r="C4" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1">
       <c r="A5" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>104</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E5" s="8"/>
       <c r="H5" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1115,13 +1115,13 @@
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>13</v>
@@ -1141,13 +1141,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>13</v>
@@ -1167,13 +1167,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>18</v>
@@ -1193,16 +1193,16 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>19</v>
@@ -1231,7 +1231,7 @@
         <v>51</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1245,16 +1245,16 @@
         <v>17</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>18</v>
@@ -1277,16 +1277,16 @@
         <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>18</v>
@@ -1300,124 +1300,124 @@
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1">
       <c r="A13" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>91</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F13" s="5"/>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1">
       <c r="A14" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>122</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F14" s="5"/>
       <c r="H14" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1">
       <c r="A15" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="C15" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F15" s="5"/>
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11" s="8" customFormat="1">
       <c r="A16" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="D16" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F16" s="3"/>
       <c r="H16" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1">
       <c r="A17" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>111</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F17" s="5"/>
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" s="8" customFormat="1">
       <c r="A18" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F18" s="3"/>
       <c r="H18" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" s="4" customFormat="1">
       <c r="A19" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>141</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F19" s="5"/>
       <c r="K19" s="5"/>
@@ -1430,7 +1430,7 @@
         <v>67</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>37</v>
@@ -1516,7 +1516,7 @@
         <v>16</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>38</v>
@@ -1527,73 +1527,73 @@
     </row>
     <row r="24" spans="1:11" s="8" customFormat="1">
       <c r="A24" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>97</v>
-      </c>
       <c r="D24" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="9" customFormat="1">
       <c r="A25" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>107</v>
-      </c>
       <c r="D25" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="4" customFormat="1">
       <c r="A26" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B26" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>134</v>
-      </c>
       <c r="D26" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="4" customFormat="1">
       <c r="A27" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>114</v>
-      </c>
       <c r="D27" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1615,16 +1615,16 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1638,13 +1638,13 @@
         <v>11</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>13</v>
@@ -1658,16 +1658,16 @@
     </row>
     <row r="31" spans="1:11" s="4" customFormat="1">
       <c r="A31" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="C31" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>128</v>
-      </c>
       <c r="D31" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="4" customFormat="1">
@@ -1675,16 +1675,16 @@
         <v>68</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>88</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="4" customFormat="1">
@@ -1692,16 +1692,16 @@
         <v>68</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>130</v>
-      </c>
       <c r="D33" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1732,16 +1732,16 @@
         <v>68</v>
       </c>
       <c r="B35" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>146</v>
-      </c>
       <c r="D35" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1763,87 +1763,87 @@
     </row>
     <row r="37" spans="1:11" s="4" customFormat="1">
       <c r="A37" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>93</v>
-      </c>
       <c r="C37" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="4" customFormat="1">
       <c r="A38" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B38" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>118</v>
-      </c>
       <c r="D38" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="9" customFormat="1">
       <c r="A39" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B39" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>132</v>
-      </c>
       <c r="D39" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="9" customFormat="1">
       <c r="A40" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B40" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>136</v>
-      </c>
       <c r="D40" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="4" customFormat="1">
       <c r="A41" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B41" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>139</v>
-      </c>
       <c r="D41" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1931,10 +1931,10 @@
         <v>66</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="4" customFormat="1">
@@ -1942,13 +1942,13 @@
         <v>77</v>
       </c>
       <c r="B47" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="9" t="s">
-        <v>109</v>
-      </c>
       <c r="D47" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1959,33 +1959,33 @@
         <v>83</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D48" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="9" customFormat="1">
       <c r="A49" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="C49" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>144</v>
-      </c>
       <c r="D49" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E49" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H49" s="9" t="s">
         <v>171</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2007,10 +2007,10 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>37</v>
